--- a/src/main/resources/2023.3.xlsx
+++ b/src/main/resources/2023.3.xlsx
@@ -1,30 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10514"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cvbn\IdeaProjects\TaxiRechnungen\src\main\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ekoca/Desktop/Persönlich/TaxiRechnungen/src/main/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F610EAA4-A9A2-4FCC-8F33-04FB3AE2E582}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D858A78-27EF-3D4D-821A-1DA493417273}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E29335DA-9D6A-4D4F-89C3-F989C8FC26CC}"/>
+    <workbookView xWindow="1920" yWindow="500" windowWidth="34560" windowHeight="21100" xr2:uid="{E29335DA-9D6A-4D4F-89C3-F989C8FC26CC}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -32,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="46">
   <si>
     <t>Taxi &amp; Transportkurier Ahmet Koca</t>
   </si>
@@ -92,12 +96,6 @@
   </si>
   <si>
     <t>DATUM:</t>
-  </si>
-  <si>
-    <t>RECHNUNGSNR.: 36.3</t>
-  </si>
-  <si>
-    <t>Abrechnungsperiode: 01.01.2022 – 31.01.2022</t>
   </si>
   <si>
     <t>1.3.2023</t>
@@ -298,7 +296,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -314,7 +312,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -612,19 +610,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8BC3C87-E7E4-4331-8117-DBD5106A4834}">
   <dimension ref="A2:O44"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="M42" sqref="M42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="14.0" collapsed="false"/>
-    <col min="7" max="7" customWidth="true" width="10.28515625" collapsed="false"/>
-    <col min="10" max="10" customWidth="true" width="11.42578125" collapsed="false"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" width="14.0" collapsed="false"/>
+    <col min="4" max="4" width="14" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.33203125" customWidth="1"/>
+    <col min="10" max="10" width="11.5" customWidth="1"/>
+    <col min="15" max="15" width="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -635,7 +633,7 @@
       <c r="K2" s="3"/>
       <c r="L2" s="3"/>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
@@ -647,18 +645,18 @@
       <c r="K3" s="3"/>
       <c r="L3" s="3"/>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4" s="2"/>
       <c r="I4" s="10" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="I6" s="8"/>
       <c r="K6" s="3"/>
       <c r="L6" s="9"/>
@@ -666,9 +664,9 @@
       <c r="N6" s="8"/>
       <c r="O6" s="9"/>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="H7" s="4" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="I7" s="8"/>
       <c r="K7" s="3"/>
@@ -677,12 +675,12 @@
       <c r="N7" s="8"/>
       <c r="O7" s="9"/>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="G8" s="3" t="s">
         <v>19</v>
       </c>
       <c r="H8" s="14" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="I8" s="8"/>
       <c r="K8" s="3"/>
@@ -691,7 +689,7 @@
       <c r="N8" s="8"/>
       <c r="O8" s="9"/>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="I9" s="8"/>
       <c r="K9" s="3"/>
       <c r="L9" s="9"/>
@@ -699,49 +697,49 @@
       <c r="N9" s="8"/>
       <c r="O9" s="9"/>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="I10" s="8" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="K10" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="L10" s="9"/>
       <c r="M10" s="3"/>
       <c r="N10" s="8"/>
-      <c r="O10" s="9" t="n">
-        <v>65.45</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O10" s="9">
+        <v>65.45</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="I11" s="8" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="K11" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="L11" s="9"/>
       <c r="M11" s="3"/>
       <c r="N11" s="8"/>
-      <c r="O11" s="9" t="n">
-        <v>65.45</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O11" s="9">
+        <v>65.45</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="I12" s="8" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="K12" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="L12" s="9"/>
       <c r="M12" s="3"/>
       <c r="N12" s="8"/>
-      <c r="O12" s="9" t="n">
-        <v>65.45</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O12" s="9">
+        <v>65.45</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="I13" s="8"/>
       <c r="K13" s="3"/>
       <c r="L13" s="9"/>
@@ -749,7 +747,7 @@
       <c r="N13" s="8"/>
       <c r="O13" s="9"/>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
         <v>5</v>
       </c>
@@ -757,19 +755,19 @@
         <v>7</v>
       </c>
       <c r="I14" s="8" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="K14" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="L14" s="9"/>
       <c r="M14" s="3"/>
       <c r="N14" s="8"/>
-      <c r="O14" s="9" t="n">
-        <v>65.45</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O14" s="9">
+        <v>65.45</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>6</v>
       </c>
@@ -777,70 +775,70 @@
         <v>8</v>
       </c>
       <c r="I15" s="8" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="K15" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="L15" s="9"/>
       <c r="M15" s="3"/>
       <c r="N15" s="8"/>
-      <c r="O15" s="9" t="n">
-        <v>65.45</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O15" s="9">
+        <v>65.45</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>1</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="I16" s="8" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="K16" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="L16" s="9"/>
       <c r="M16" s="3"/>
       <c r="N16" s="8"/>
-      <c r="O16" s="9" t="n">
-        <v>65.45</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O16" s="9">
+        <v>65.45</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
         <v>2</v>
       </c>
       <c r="I17" s="8" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="K17" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="L17" s="9"/>
       <c r="M17" s="3"/>
       <c r="N17" s="8"/>
-      <c r="O17" s="9" t="n">
-        <v>65.45</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O17" s="9">
+        <v>65.45</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
       <c r="I18" s="8" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K18" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="L18" s="9"/>
       <c r="M18" s="3"/>
       <c r="N18" s="8"/>
-      <c r="O18" s="9" t="n">
-        <v>65.45</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O18" s="9">
+        <v>65.45</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
       <c r="I19" s="8"/>
       <c r="K19" s="3"/>
       <c r="L19" s="9"/>
@@ -848,84 +846,84 @@
       <c r="N19" s="8"/>
       <c r="O19" s="9"/>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
       <c r="I20" s="8" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="K20" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="L20" s="9"/>
       <c r="M20" s="3"/>
       <c r="N20" s="8"/>
-      <c r="O20" s="9" t="n">
-        <v>65.45</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O20" s="9">
+        <v>65.45</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
       <c r="I21" s="8" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K21" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="L21" s="9"/>
       <c r="M21" s="3"/>
       <c r="N21" s="8"/>
-      <c r="O21" s="9" t="n">
-        <v>65.45</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O21" s="9">
+        <v>65.45</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C22" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="D22" s="12" t="n">
+      <c r="D22" s="12">
         <f>O42</f>
         <v>1505.3500000000001</v>
       </c>
       <c r="I22" s="8" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="K22" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="L22" s="9"/>
       <c r="M22" s="3"/>
       <c r="N22" s="8"/>
-      <c r="O22" s="9" t="n">
-        <v>65.45</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O22" s="9">
+        <v>65.45</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
       <c r="I23" s="8" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="K23" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="L23" s="9"/>
       <c r="M23" s="3"/>
       <c r="N23" s="8"/>
-      <c r="O23" s="9" t="n">
-        <v>65.45</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O23" s="9">
+        <v>65.45</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
       <c r="I24" s="8" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="K24" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="L24" s="9"/>
       <c r="M24" s="3"/>
       <c r="N24" s="8"/>
-      <c r="O24" s="9" t="n">
-        <v>65.45</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O24" s="9">
+        <v>65.45</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
       <c r="I25" s="8"/>
       <c r="K25" s="3"/>
       <c r="L25" s="9"/>
@@ -933,80 +931,80 @@
       <c r="N25" s="8"/>
       <c r="O25" s="9"/>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.2">
       <c r="I26" s="8" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="K26" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="L26" s="9"/>
       <c r="M26" s="3"/>
       <c r="N26" s="8"/>
-      <c r="O26" s="9" t="n">
-        <v>65.45</v>
-      </c>
-    </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O26" s="9">
+        <v>65.45</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.2">
       <c r="I27" s="8" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="K27" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="L27" s="9"/>
       <c r="M27" s="3"/>
       <c r="N27" s="8"/>
-      <c r="O27" s="9" t="n">
-        <v>65.45</v>
-      </c>
-    </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O27" s="9">
+        <v>65.45</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.2">
       <c r="I28" s="8" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="K28" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="L28" s="9"/>
       <c r="M28" s="3"/>
       <c r="N28" s="8"/>
-      <c r="O28" s="9" t="n">
-        <v>65.45</v>
-      </c>
-    </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O28" s="9">
+        <v>65.45</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
         <v>9</v>
       </c>
       <c r="I29" s="8" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="K29" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="L29" s="9"/>
       <c r="M29" s="3"/>
       <c r="N29" s="8"/>
-      <c r="O29" s="9" t="n">
-        <v>65.45</v>
-      </c>
-    </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O29" s="9">
+        <v>65.45</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.2">
       <c r="I30" s="8" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="K30" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="L30" s="9"/>
       <c r="M30" s="3"/>
       <c r="N30" s="8"/>
-      <c r="O30" s="9" t="n">
-        <v>65.45</v>
-      </c>
-    </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O30" s="9">
+        <v>65.45</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
         <v>0</v>
       </c>
@@ -1017,86 +1015,86 @@
       <c r="N31" s="8"/>
       <c r="O31" s="9"/>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
         <v>11</v>
       </c>
       <c r="I32" s="8" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="K32" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="L32" s="9"/>
       <c r="M32" s="3"/>
       <c r="N32" s="8"/>
-      <c r="O32" s="9" t="n">
-        <v>65.45</v>
-      </c>
-    </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O32" s="9">
+        <v>65.45</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
         <v>12</v>
       </c>
       <c r="I33" s="8" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="K33" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="L33" s="9"/>
       <c r="M33" s="3"/>
       <c r="N33" s="8"/>
-      <c r="O33" s="9" t="n">
-        <v>65.45</v>
-      </c>
-    </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O33" s="9">
+        <v>65.45</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
         <v>13</v>
       </c>
       <c r="I34" s="8" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K34" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="L34" s="9"/>
       <c r="M34" s="3"/>
       <c r="N34" s="8"/>
-      <c r="O34" s="9" t="n">
-        <v>65.45</v>
-      </c>
-    </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O34" s="9">
+        <v>65.45</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.2">
       <c r="I35" s="8" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="K35" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="L35" s="9"/>
       <c r="M35" s="3"/>
       <c r="N35" s="8"/>
-      <c r="O35" s="9" t="n">
-        <v>65.45</v>
-      </c>
-    </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O35" s="9">
+        <v>65.45</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.2">
       <c r="I36" s="8" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K36" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="L36" s="9"/>
       <c r="M36" s="3"/>
       <c r="N36" s="8"/>
-      <c r="O36" s="9" t="n">
-        <v>65.45</v>
-      </c>
-    </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O36" s="9">
+        <v>65.45</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.2">
       <c r="I37" s="8"/>
       <c r="K37" s="3"/>
       <c r="L37" s="9"/>
@@ -1104,7 +1102,7 @@
       <c r="N37" s="8"/>
       <c r="O37" s="9"/>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.2">
       <c r="I38" s="8"/>
       <c r="K38" s="3"/>
       <c r="L38" s="9"/>
@@ -1112,7 +1110,7 @@
       <c r="N38" s="8"/>
       <c r="O38" s="9"/>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.2">
       <c r="I39" s="8"/>
       <c r="K39" s="3"/>
       <c r="L39" s="9"/>
@@ -1120,7 +1118,7 @@
       <c r="N39" s="8"/>
       <c r="O39" s="9"/>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
         <v>14</v>
       </c>
@@ -1131,15 +1129,15 @@
       <c r="N40" s="8"/>
       <c r="O40" s="9"/>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.2">
       <c r="M42" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="O42" s="11" t="n">
+      <c r="O42" s="11">
         <v>1505.3500000000001</v>
       </c>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D44" s="6" t="s">
         <v>15</v>
       </c>
